--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H2">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1.790295186135</v>
+        <v>9.766233233242222</v>
       </c>
       <c r="R2">
-        <v>16.112656675215</v>
+        <v>87.89609909917999</v>
       </c>
       <c r="S2">
-        <v>0.005908888861577984</v>
+        <v>0.04341038806343574</v>
       </c>
       <c r="T2">
-        <v>0.005908888861577984</v>
+        <v>0.04341038806343574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H3">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>2.75043713396</v>
+        <v>8.042558782057776</v>
       </c>
       <c r="R3">
-        <v>24.75393420564</v>
+        <v>72.38302903851999</v>
       </c>
       <c r="S3">
-        <v>0.009077847871787333</v>
+        <v>0.03574874666762549</v>
       </c>
       <c r="T3">
-        <v>0.009077847871787335</v>
+        <v>0.03574874666762549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H4">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>1.37437420604</v>
+        <v>4.640006800122222</v>
       </c>
       <c r="R4">
-        <v>12.36936785436</v>
+        <v>41.76006120109999</v>
       </c>
       <c r="S4">
-        <v>0.004536137113367329</v>
+        <v>0.02062458380828746</v>
       </c>
       <c r="T4">
-        <v>0.004536137113367329</v>
+        <v>0.02062458380828746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H5">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>2.187560814125</v>
+        <v>4.689908540272778</v>
       </c>
       <c r="R5">
-        <v>19.688047327125</v>
+        <v>42.209176862455</v>
       </c>
       <c r="S5">
-        <v>0.00722006841593159</v>
+        <v>0.02084639439310975</v>
       </c>
       <c r="T5">
-        <v>0.007220068415931591</v>
+        <v>0.02084639439310975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H6">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1.09885934211</v>
+        <v>3.532586545246111</v>
       </c>
       <c r="R6">
-        <v>9.889734078989999</v>
+        <v>31.793278907215</v>
       </c>
       <c r="S6">
-        <v>0.00362679728869308</v>
+        <v>0.01570215958746826</v>
       </c>
       <c r="T6">
-        <v>0.00362679728869308</v>
+        <v>0.01570215958746826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H7">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>1.44255156145</v>
+        <v>5.910322393899444</v>
       </c>
       <c r="R7">
-        <v>12.98296405305</v>
+        <v>53.192901545095</v>
       </c>
       <c r="S7">
-        <v>0.004761157221288019</v>
+        <v>0.02627106915958967</v>
       </c>
       <c r="T7">
-        <v>0.00476115722128802</v>
+        <v>0.02627106915958967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>15.761802426664</v>
+        <v>29.40463590302933</v>
       </c>
       <c r="R8">
-        <v>141.856221839976</v>
+        <v>264.641723127264</v>
       </c>
       <c r="S8">
-        <v>0.05202200146578775</v>
+        <v>0.1307020449880014</v>
       </c>
       <c r="T8">
-        <v>0.05202200146578777</v>
+        <v>0.1307020449880014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>24.21491552241066</v>
@@ -1013,10 +1013,10 @@
         <v>217.934239701696</v>
       </c>
       <c r="S9">
-        <v>0.07992159378103515</v>
+        <v>0.1076340135082139</v>
       </c>
       <c r="T9">
-        <v>0.07992159378103518</v>
+        <v>0.1076340135082139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.498792</v>
       </c>
       <c r="I10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>12.10002398692267</v>
+        <v>13.97035144325333</v>
       </c>
       <c r="R10">
-        <v>108.900215882304</v>
+        <v>125.73316298928</v>
       </c>
       <c r="S10">
-        <v>0.03993626163711439</v>
+        <v>0.06209747023754757</v>
       </c>
       <c r="T10">
-        <v>0.0399362616371144</v>
+        <v>0.06209747023754757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.498792</v>
       </c>
       <c r="I11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>19.25933869206667</v>
+        <v>14.12059795744267</v>
       </c>
       <c r="R11">
-        <v>173.3340482286</v>
+        <v>127.085381616984</v>
       </c>
       <c r="S11">
-        <v>0.06356565819997086</v>
+        <v>0.06276530801393174</v>
       </c>
       <c r="T11">
-        <v>0.06356565819997087</v>
+        <v>0.06276530801393174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.498792</v>
       </c>
       <c r="I12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>9.674384413903999</v>
+        <v>10.63607827891467</v>
       </c>
       <c r="R12">
-        <v>87.069459725136</v>
+        <v>95.724704510232</v>
       </c>
       <c r="S12">
-        <v>0.03193041167102283</v>
+        <v>0.04727680309632372</v>
       </c>
       <c r="T12">
-        <v>0.03193041167102284</v>
+        <v>0.04727680309632372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.498792</v>
       </c>
       <c r="I13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>12.70025908461333</v>
+        <v>17.79507758125067</v>
       </c>
       <c r="R13">
-        <v>114.30233176152</v>
+        <v>160.155698231256</v>
       </c>
       <c r="S13">
-        <v>0.04191734414827806</v>
+        <v>0.0790981748000486</v>
       </c>
       <c r="T13">
-        <v>0.04191734414827807</v>
+        <v>0.0790981748000486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H14">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>10.421821619685</v>
+        <v>4.846478135623556</v>
       </c>
       <c r="R14">
-        <v>93.79639457716499</v>
+        <v>43.61830322061201</v>
       </c>
       <c r="S14">
-        <v>0.03439733635147342</v>
+        <v>0.02154233792945473</v>
       </c>
       <c r="T14">
-        <v>0.03439733635147343</v>
+        <v>0.02154233792945472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H15">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>16.01108320476</v>
+        <v>3.991107355396445</v>
       </c>
       <c r="R15">
-        <v>144.09974884284</v>
+        <v>35.919966198568</v>
       </c>
       <c r="S15">
-        <v>0.05284475540296216</v>
+        <v>0.01774026023778203</v>
       </c>
       <c r="T15">
-        <v>0.05284475540296217</v>
+        <v>0.01774026023778203</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H16">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>8.00062633524</v>
+        <v>2.302596197415556</v>
       </c>
       <c r="R16">
-        <v>72.00563701716</v>
+        <v>20.72336577674</v>
       </c>
       <c r="S16">
-        <v>0.0264061548084743</v>
+        <v>0.01023491781283386</v>
       </c>
       <c r="T16">
-        <v>0.0264061548084743</v>
+        <v>0.01023491781283385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H17">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>12.734418750375</v>
+        <v>2.327359858777445</v>
       </c>
       <c r="R17">
-        <v>114.609768753375</v>
+        <v>20.946238728997</v>
       </c>
       <c r="S17">
-        <v>0.0420300884990966</v>
+        <v>0.01034499097245614</v>
       </c>
       <c r="T17">
-        <v>0.0420300884990966</v>
+        <v>0.01034499097245614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H18">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>6.39677531241</v>
+        <v>1.753040608886778</v>
       </c>
       <c r="R18">
-        <v>57.57097781169</v>
+        <v>15.777365479981</v>
       </c>
       <c r="S18">
-        <v>0.02111262694903223</v>
+        <v>0.007792172407239631</v>
       </c>
       <c r="T18">
-        <v>0.02111262694903223</v>
+        <v>0.007792172407239629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H19">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>8.39750626995</v>
+        <v>2.932988345908111</v>
       </c>
       <c r="R19">
-        <v>75.57755642955001</v>
+        <v>26.39689511317301</v>
       </c>
       <c r="S19">
-        <v>0.02771606137793478</v>
+        <v>0.01303697743445524</v>
       </c>
       <c r="T19">
-        <v>0.02771606137793479</v>
+        <v>0.01303697743445524</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H20">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>14.26570277813233</v>
+        <v>8.307768197233333</v>
       </c>
       <c r="R20">
-        <v>128.391325003191</v>
+        <v>74.76991377509999</v>
       </c>
       <c r="S20">
-        <v>0.04708410819685457</v>
+        <v>0.03692758843352357</v>
       </c>
       <c r="T20">
-        <v>0.04708410819685457</v>
+        <v>0.03692758843352357</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H21">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>21.91645208392622</v>
+        <v>6.841503011266665</v>
       </c>
       <c r="R21">
-        <v>197.248068755336</v>
+        <v>61.5735271014</v>
       </c>
       <c r="S21">
-        <v>0.07233549003926883</v>
+        <v>0.03041011755129401</v>
       </c>
       <c r="T21">
-        <v>0.07233549003926884</v>
+        <v>0.03041011755129401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H22">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>10.95149787651822</v>
+        <v>3.947079698833333</v>
       </c>
       <c r="R22">
-        <v>98.563480888664</v>
+        <v>35.5237172895</v>
       </c>
       <c r="S22">
-        <v>0.03614553863592516</v>
+        <v>0.01754455964254918</v>
       </c>
       <c r="T22">
-        <v>0.03614553863592516</v>
+        <v>0.01754455964254918</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H23">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>17.43125526174722</v>
+        <v>3.989529236941667</v>
       </c>
       <c r="R23">
-        <v>156.881297355725</v>
+        <v>35.905763132475</v>
       </c>
       <c r="S23">
-        <v>0.05753204882476512</v>
+        <v>0.01773324558506016</v>
       </c>
       <c r="T23">
-        <v>0.05753204882476513</v>
+        <v>0.01773324558506016</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H24">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>8.756098374680665</v>
+        <v>3.005038836741666</v>
       </c>
       <c r="R24">
-        <v>78.80488537212599</v>
+        <v>27.045349530675</v>
       </c>
       <c r="S24">
-        <v>0.02889959854538213</v>
+        <v>0.013357238039803</v>
       </c>
       <c r="T24">
-        <v>0.02889959854538213</v>
+        <v>0.013357238039803</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H25">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>11.49475906384111</v>
+        <v>5.027689514141667</v>
       </c>
       <c r="R25">
-        <v>103.45283157457</v>
+        <v>45.249205627275</v>
       </c>
       <c r="S25">
-        <v>0.03793857813218272</v>
+        <v>0.0223478128833198</v>
       </c>
       <c r="T25">
-        <v>0.03793857813218273</v>
+        <v>0.0223478128833198</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H26">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I26">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J26">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>1.258120422571333</v>
+        <v>1.900484875944</v>
       </c>
       <c r="R26">
-        <v>11.323083803142</v>
+        <v>17.104363883496</v>
       </c>
       <c r="S26">
-        <v>0.004152440228309342</v>
+        <v>0.008447554343941338</v>
       </c>
       <c r="T26">
-        <v>0.004152440228309343</v>
+        <v>0.008447554343941338</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H27">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I27">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J27">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>1.932855071070222</v>
+        <v>1.565062083216</v>
       </c>
       <c r="R27">
-        <v>17.395695639632</v>
+        <v>14.085558748944</v>
       </c>
       <c r="S27">
-        <v>0.006379409322519474</v>
+        <v>0.006956617843665898</v>
       </c>
       <c r="T27">
-        <v>0.006379409322519475</v>
+        <v>0.006956617843665898</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H28">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I28">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J28">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>0.9658341653742221</v>
+        <v>0.9029338678800001</v>
       </c>
       <c r="R28">
-        <v>8.692507488367999</v>
+        <v>8.12640481092</v>
       </c>
       <c r="S28">
-        <v>0.003187746236547643</v>
+        <v>0.004013493090342385</v>
       </c>
       <c r="T28">
-        <v>0.003187746236547644</v>
+        <v>0.004013493090342385</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H29">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I29">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J29">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>1.537296730272222</v>
+        <v>0.9126446233140002</v>
       </c>
       <c r="R29">
-        <v>13.83567057245</v>
+        <v>8.213801609826001</v>
       </c>
       <c r="S29">
-        <v>0.005073864688234052</v>
+        <v>0.004056656882534466</v>
       </c>
       <c r="T29">
-        <v>0.005073864688234054</v>
+        <v>0.004056656882534466</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H30">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I30">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J30">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>0.7722175597346664</v>
+        <v>0.687432620322</v>
       </c>
       <c r="R30">
-        <v>6.949958037611998</v>
+        <v>6.186893582898001</v>
       </c>
       <c r="S30">
-        <v>0.002548712509964279</v>
+        <v>0.003055601489637533</v>
       </c>
       <c r="T30">
-        <v>0.00254871250996428</v>
+        <v>0.003055601489637533</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H31">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I31">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J31">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>1.013745439371111</v>
+        <v>1.150134146226</v>
       </c>
       <c r="R31">
-        <v>9.12370895434</v>
+        <v>10.351207316034</v>
       </c>
       <c r="S31">
-        <v>0.003345877920895969</v>
+        <v>0.005112285199449805</v>
       </c>
       <c r="T31">
-        <v>0.003345877920895971</v>
+        <v>0.005112285199449805</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H32">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>7.462960270223332</v>
+        <v>5.836100308601777</v>
       </c>
       <c r="R32">
-        <v>67.16664243200999</v>
+        <v>52.524902777416</v>
       </c>
       <c r="S32">
-        <v>0.02463158207464252</v>
+        <v>0.02594115593217645</v>
       </c>
       <c r="T32">
-        <v>0.02463158207464253</v>
+        <v>0.02594115593217645</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H33">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>11.46537354032889</v>
+        <v>4.806067873758222</v>
       </c>
       <c r="R33">
-        <v>103.18836186296</v>
+        <v>43.254610863824</v>
       </c>
       <c r="S33">
-        <v>0.03784159089012468</v>
+        <v>0.02136271646154341</v>
       </c>
       <c r="T33">
-        <v>0.0378415908901247</v>
+        <v>0.02136271646154341</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H34">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>5.729166997448888</v>
+        <v>2.772772723257778</v>
       </c>
       <c r="R34">
-        <v>51.56250297704</v>
+        <v>24.95495450932</v>
       </c>
       <c r="S34">
-        <v>0.01890917839668099</v>
+        <v>0.01232482750039442</v>
       </c>
       <c r="T34">
-        <v>0.018909178396681</v>
+        <v>0.01232482750039442</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H35">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>9.118987511638888</v>
+        <v>2.802592977816222</v>
       </c>
       <c r="R35">
-        <v>82.07088760475</v>
+        <v>25.223336800346</v>
       </c>
       <c r="S35">
-        <v>0.03009731811473944</v>
+        <v>0.01245737694823336</v>
       </c>
       <c r="T35">
-        <v>0.03009731811473945</v>
+        <v>0.01245737694823336</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H36">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>4.580665622206666</v>
+        <v>2.111001133650889</v>
       </c>
       <c r="R36">
-        <v>41.22599059986</v>
+        <v>18.999010202858</v>
       </c>
       <c r="S36">
-        <v>0.01511853703416547</v>
+        <v>0.009383287929497375</v>
       </c>
       <c r="T36">
-        <v>0.01511853703416547</v>
+        <v>0.009383287929497375</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H37">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>6.013368674744444</v>
+        <v>3.531887220301555</v>
       </c>
       <c r="R37">
-        <v>54.1203180727</v>
+        <v>31.786984982714</v>
       </c>
       <c r="S37">
-        <v>0.01984718914396949</v>
+        <v>0.01569905112522898</v>
       </c>
       <c r="T37">
-        <v>0.01984718914396949</v>
+        <v>0.01569905112522898</v>
       </c>
     </row>
   </sheetData>
